--- a/data/trans_camb/P9_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,98</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 7,04</t>
+          <t>-3,61; 7,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 7,01</t>
+          <t>-2,16; 6,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,9</t>
+          <t>-1,57; 5,48</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 9,11</t>
+          <t>-4,39; 9,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 9,79</t>
+          <t>-2,89; 9,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 7,83</t>
+          <t>-1,97; 7,35</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 9,05</t>
+          <t>-2,72; 8,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 9,86</t>
+          <t>-1,85; 10,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,87</t>
+          <t>-0,24; 7,86</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 12,58</t>
+          <t>-3,32; 12,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 15,4</t>
+          <t>-2,55; 15,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 11,41</t>
+          <t>-0,33; 11,31</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 13,7</t>
+          <t>-13,07; 17,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 9,86</t>
+          <t>-12,38; 9,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 8,26</t>
+          <t>-8,87; 9,92</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 24,04</t>
+          <t>-19,39; 32,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 15,97</t>
+          <t>-17,12; 15,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 13,96</t>
+          <t>-13,27; 16,42</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,49</t>
+          <t>-1,2; 6,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,85</t>
+          <t>-1,02; 6,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,24</t>
+          <t>0,19; 5,17</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 8,84</t>
+          <t>-1,56; 8,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 8,55</t>
+          <t>-1,42; 9,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,28</t>
+          <t>0,26; 7,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.075089771239069</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.469442598265603</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.277185263780324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 7,01</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 6,82</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 5,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.559485574845807</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.83680493100392</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.335184320450712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.295942901440561</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.323723450828002</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.715189202659583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 9,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 9,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 7,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.02595374074953423</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.03356382444233742</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02971910210264656</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.0432139257052564</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.02404908913557083</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.01681936378526164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 8,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 10,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 7,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.09399170767008393</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1026591085901412</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.07694312961169426</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.904941608261803</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.260298663645534</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.091196644768369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 12,22</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 15,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 11,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.830365297043792</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.128603659496579</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2179433669207654</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.474299798988211</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.21610876264723</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.214497728816456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,07; 17,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,38; 9,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,87; 9,92</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.05174442340214901</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.06280928282136573</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.05712692136431593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,98%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,77%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.02282087400970425</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.02787826084350578</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.003183375281160328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-19,39; 32,7</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-17,12; 15,15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-13,27; 16,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1327928678722072</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1583652133800059</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1169042624312889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.915715825439379</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.587670022683285</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.1869372387510393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 6,59</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 6,15</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 5,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.810152837711</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.84049246928215</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-9.548319114105665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.9906548008656</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.013629799926527</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9.937381622647857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 8,9</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 9,06</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 7,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.03123461161851961</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.02397755923248499</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.002932715025653358</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2072512068535307</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1825856947665366</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1389207724865878</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.3236456316141149</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1433948671620688</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.168234192538935</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.800330737464163</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.724987508475674</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.761788442697621</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.8472744879747406</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.9490089731791644</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3253052397441355</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.89534888120157</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.392313579194164</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.343423026465556</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.03691096852364284</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.03865593847222201</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.0377715716303499</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.01060565652836858</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.01286557342985606</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.004602004086322139</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.09373376018628432</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.09362084408243189</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.07432984734730191</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
